--- a/reports/Ureports.xlsx
+++ b/reports/Ureports.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
@@ -22,25 +22,10 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>Mor</t>
+    <t>Santiago</t>
   </si>
   <si>
-    <t>aristigol@gmail.com</t>
-  </si>
-  <si>
-    <t>Mery</t>
-  </si>
-  <si>
-    <t>cano2030@gmail.com</t>
-  </si>
-  <si>
-    <t>Pablo Escobar</t>
-  </si>
-  <si>
-    <t>Pablo No Escobar</t>
-  </si>
-  <si>
-    <t>Prueba para otro archivo</t>
+    <t>aitest245@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -437,7 +422,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -448,46 +433,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
